--- a/static/需求/字段(12.0).xlsx
+++ b/static/需求/字段(12.0).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="月报数据项" sheetId="3" r:id="rId1"/>
@@ -191,7 +191,7 @@
   </si>
   <si>
     <t>post('/monthReportAll','startDate','endDate')
-post('/monthReportAll','20210216','20210315')</t>
+post('/monthReportAll','20210201','20210301')</t>
   </si>
   <si>
     <t xml:space="preserve"> select count(*)  as count from libintest.`versionscore`   where   DATE(ticeshijian) &gt;='20210214' and DATE(ticeshijian) &lt; '20210314'  
@@ -2997,14 +2997,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="#\ ?/?"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
-    <numFmt numFmtId="180" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="179" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -3087,17 +3087,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3108,25 +3102,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3141,7 +3125,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3154,10 +3152,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3174,60 +3228,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3275,6 +3275,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3287,97 +3293,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3389,49 +3305,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3449,13 +3323,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3867,46 +3867,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3941,6 +3906,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -3957,10 +3957,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3969,140 +3969,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4133,13 +4133,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
@@ -4148,13 +4148,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4166,13 +4166,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4184,7 +4184,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4214,13 +4214,13 @@
     <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4241,13 +4241,13 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -4256,7 +4256,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4268,7 +4268,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4493,6 +4493,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4900,8 +4903,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J167"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72:H119"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.775" defaultRowHeight="13.5"/>
@@ -5023,7 +5026,7 @@
         <v>22</v>
       </c>
       <c r="H4" s="127"/>
-      <c r="I4" s="139" t="s">
+      <c r="I4" s="140" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5069,7 +5072,7 @@
         <v>30</v>
       </c>
       <c r="H6" s="127"/>
-      <c r="I6" s="140"/>
+      <c r="I6" s="141"/>
     </row>
     <row r="7" ht="67.5" spans="1:9">
       <c r="A7" s="125"/>
@@ -5111,7 +5114,7 @@
         <v>36</v>
       </c>
       <c r="H8" s="127"/>
-      <c r="I8" s="140"/>
+      <c r="I8" s="141"/>
     </row>
     <row r="9" ht="162" spans="1:9">
       <c r="A9" s="125"/>
@@ -5153,7 +5156,7 @@
         <v>42</v>
       </c>
       <c r="H10" s="127"/>
-      <c r="I10" s="140"/>
+      <c r="I10" s="141"/>
     </row>
     <row r="11" ht="189" spans="1:9">
       <c r="A11" s="125"/>
@@ -5195,7 +5198,7 @@
         <v>48</v>
       </c>
       <c r="H12" s="127"/>
-      <c r="I12" s="140"/>
+      <c r="I12" s="141"/>
     </row>
     <row r="13" ht="27" spans="1:9">
       <c r="A13" s="125"/>
@@ -5308,7 +5311,7 @@
         <v>64</v>
       </c>
       <c r="H17" s="127"/>
-      <c r="I17" s="140"/>
+      <c r="I17" s="141"/>
     </row>
     <row r="18" hidden="1" spans="1:9">
       <c r="A18" s="125"/>
@@ -5472,7 +5475,7 @@
         <v>82</v>
       </c>
       <c r="H27" s="127"/>
-      <c r="I27" s="140"/>
+      <c r="I27" s="141"/>
     </row>
     <row r="28" hidden="1" spans="1:9">
       <c r="A28" s="125"/>
@@ -5552,7 +5555,7 @@
         <v>92</v>
       </c>
       <c r="H31" s="127"/>
-      <c r="I31" s="140"/>
+      <c r="I31" s="141"/>
     </row>
     <row r="32" hidden="1" spans="1:9">
       <c r="A32" s="125"/>
@@ -5632,7 +5635,7 @@
         <v>102</v>
       </c>
       <c r="H35" s="127"/>
-      <c r="I35" s="140"/>
+      <c r="I35" s="141"/>
     </row>
     <row r="36" ht="27" spans="1:9">
       <c r="A36" s="125"/>
@@ -5722,7 +5725,7 @@
         <v>117</v>
       </c>
       <c r="H39" s="127"/>
-      <c r="I39" s="140"/>
+      <c r="I39" s="141"/>
     </row>
     <row r="40" ht="22.2" customHeight="1" spans="1:9">
       <c r="A40" s="125"/>
@@ -5904,7 +5907,7 @@
         <v>36</v>
       </c>
       <c r="H47" s="127"/>
-      <c r="I47" s="140"/>
+      <c r="I47" s="141"/>
     </row>
     <row r="48" ht="67.5" spans="1:9">
       <c r="A48" s="125"/>
@@ -5992,7 +5995,7 @@
         <v>42</v>
       </c>
       <c r="H51" s="127"/>
-      <c r="I51" s="140"/>
+      <c r="I51" s="141"/>
     </row>
     <row r="52" ht="94.5" spans="1:9">
       <c r="A52" s="125"/>
@@ -6080,7 +6083,7 @@
         <v>48</v>
       </c>
       <c r="H55" s="127"/>
-      <c r="I55" s="140"/>
+      <c r="I55" s="141"/>
     </row>
     <row r="56" hidden="1" spans="1:9">
       <c r="A56" s="125"/>
@@ -6162,7 +6165,7 @@
         <v>169</v>
       </c>
       <c r="H59" s="127"/>
-      <c r="I59" s="140"/>
+      <c r="I59" s="141"/>
     </row>
     <row r="60" hidden="1" spans="1:9">
       <c r="A60" s="125"/>
@@ -6242,7 +6245,7 @@
         <v>174</v>
       </c>
       <c r="H63" s="127"/>
-      <c r="I63" s="140"/>
+      <c r="I63" s="141"/>
     </row>
     <row r="64" hidden="1" spans="1:9">
       <c r="A64" s="125"/>
@@ -6306,47 +6309,47 @@
       </c>
     </row>
     <row r="67" s="106" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A67" s="141"/>
-      <c r="B67" s="142"/>
-      <c r="C67" s="143" t="s">
+      <c r="A67" s="142"/>
+      <c r="B67" s="143"/>
+      <c r="C67" s="144" t="s">
         <v>101</v>
       </c>
-      <c r="D67" s="144">
+      <c r="D67" s="145">
         <v>1</v>
       </c>
-      <c r="E67" s="144"/>
-      <c r="F67" s="145" t="s">
+      <c r="E67" s="145"/>
+      <c r="F67" s="146" t="s">
         <v>179</v>
       </c>
-      <c r="G67" s="146" t="s">
+      <c r="G67" s="147" t="s">
         <v>179</v>
       </c>
-      <c r="H67" s="147"/>
-      <c r="I67" s="168"/>
+      <c r="H67" s="148"/>
+      <c r="I67" s="169"/>
     </row>
     <row r="68" ht="17.25" hidden="1" spans="1:9">
-      <c r="A68" s="148"/>
+      <c r="A68" s="149"/>
       <c r="B68" s="135" t="s">
         <v>180</v>
       </c>
-      <c r="C68" s="149" t="s">
+      <c r="C68" s="150" t="s">
         <v>104</v>
       </c>
-      <c r="D68" s="150"/>
-      <c r="E68" s="150" t="s">
+      <c r="D68" s="151"/>
+      <c r="E68" s="151" t="s">
         <v>105</v>
       </c>
       <c r="F68" s="135" t="s">
         <v>181</v>
       </c>
-      <c r="G68" s="151" t="s">
+      <c r="G68" s="152" t="s">
         <v>181</v>
       </c>
       <c r="H68" s="127"/>
-      <c r="I68" s="169"/>
+      <c r="I68" s="170"/>
     </row>
     <row r="69" ht="17.25" hidden="1" spans="1:9">
-      <c r="A69" s="148"/>
+      <c r="A69" s="149"/>
       <c r="B69" s="122"/>
       <c r="C69" s="136" t="s">
         <v>108</v>
@@ -6365,7 +6368,7 @@
       <c r="I69" s="139"/>
     </row>
     <row r="70" hidden="1" spans="1:9">
-      <c r="A70" s="148"/>
+      <c r="A70" s="149"/>
       <c r="B70" s="122"/>
       <c r="C70" s="121" t="s">
         <v>112</v>
@@ -6384,47 +6387,47 @@
       <c r="I70" s="139"/>
     </row>
     <row r="71" ht="14.25" hidden="1" spans="1:9">
-      <c r="A71" s="148"/>
+      <c r="A71" s="149"/>
       <c r="B71" s="128"/>
-      <c r="C71" s="152" t="s">
+      <c r="C71" s="153" t="s">
         <v>116</v>
       </c>
-      <c r="D71" s="153"/>
-      <c r="E71" s="153"/>
+      <c r="D71" s="154"/>
+      <c r="E71" s="154"/>
       <c r="F71" s="128"/>
-      <c r="G71" s="154"/>
+      <c r="G71" s="155"/>
       <c r="H71" s="127"/>
-      <c r="I71" s="170"/>
+      <c r="I71" s="171"/>
     </row>
     <row r="72" s="104" customFormat="1" spans="1:9">
-      <c r="A72" s="155" t="s">
+      <c r="A72" s="156" t="s">
         <v>184</v>
       </c>
-      <c r="B72" s="156" t="s">
+      <c r="B72" s="157" t="s">
         <v>185</v>
       </c>
-      <c r="C72" s="157" t="s">
+      <c r="C72" s="158" t="s">
         <v>74</v>
       </c>
-      <c r="D72" s="158">
+      <c r="D72" s="159">
         <v>1</v>
       </c>
-      <c r="E72" s="158" t="s">
+      <c r="E72" s="159" t="s">
         <v>186</v>
       </c>
-      <c r="F72" s="156" t="s">
+      <c r="F72" s="157" t="s">
         <v>187</v>
       </c>
-      <c r="G72" s="156" t="s">
+      <c r="G72" s="157" t="s">
         <v>187</v>
       </c>
-      <c r="H72" s="159" t="s">
+      <c r="H72" s="160" t="s">
         <v>188</v>
       </c>
-      <c r="I72" s="171"/>
+      <c r="I72" s="172"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="160"/>
+      <c r="A73" s="161"/>
       <c r="B73" s="122"/>
       <c r="C73" s="121" t="s">
         <v>77</v>
@@ -6445,7 +6448,7 @@
       <c r="I73" s="109"/>
     </row>
     <row r="74" hidden="1" spans="1:9">
-      <c r="A74" s="160"/>
+      <c r="A74" s="161"/>
       <c r="B74" s="122"/>
       <c r="C74" s="121" t="s">
         <v>81</v>
@@ -6458,7 +6461,7 @@
       <c r="I74" s="109"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="160"/>
+      <c r="A75" s="161"/>
       <c r="B75" s="122"/>
       <c r="C75" s="121" t="s">
         <v>83</v>
@@ -6479,7 +6482,7 @@
       <c r="I75" s="109"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="160"/>
+      <c r="A76" s="161"/>
       <c r="B76" s="122"/>
       <c r="C76" s="121" t="s">
         <v>84</v>
@@ -6500,7 +6503,7 @@
       <c r="I76" s="109"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="160"/>
+      <c r="A77" s="161"/>
       <c r="B77" s="122"/>
       <c r="C77" s="121" t="s">
         <v>87</v>
@@ -6521,7 +6524,7 @@
       <c r="I77" s="109"/>
     </row>
     <row r="78" hidden="1" spans="1:9">
-      <c r="A78" s="160"/>
+      <c r="A78" s="161"/>
       <c r="B78" s="122"/>
       <c r="C78" s="121" t="s">
         <v>91</v>
@@ -6534,7 +6537,7 @@
       <c r="I78" s="109"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="160"/>
+      <c r="A79" s="161"/>
       <c r="B79" s="122"/>
       <c r="C79" s="121" t="s">
         <v>93</v>
@@ -6555,7 +6558,7 @@
       <c r="I79" s="109"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="160"/>
+      <c r="A80" s="161"/>
       <c r="B80" s="122"/>
       <c r="C80" s="121" t="s">
         <v>94</v>
@@ -6576,7 +6579,7 @@
       <c r="I80" s="109"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="160"/>
+      <c r="A81" s="161"/>
       <c r="B81" s="122"/>
       <c r="C81" s="121" t="s">
         <v>97</v>
@@ -6597,7 +6600,7 @@
       <c r="I81" s="109"/>
     </row>
     <row r="82" hidden="1" spans="1:9">
-      <c r="A82" s="160"/>
+      <c r="A82" s="161"/>
       <c r="B82" s="122"/>
       <c r="C82" s="121" t="s">
         <v>101</v>
@@ -6610,7 +6613,7 @@
       <c r="I82" s="109"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="160"/>
+      <c r="A83" s="161"/>
       <c r="B83" s="122" t="s">
         <v>201</v>
       </c>
@@ -6633,7 +6636,7 @@
       <c r="I83" s="109"/>
     </row>
     <row r="84" ht="12" customHeight="1" spans="1:9">
-      <c r="A84" s="160"/>
+      <c r="A84" s="161"/>
       <c r="B84" s="122"/>
       <c r="C84" s="121" t="s">
         <v>118</v>
@@ -6654,7 +6657,7 @@
       <c r="I84" s="109"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="160"/>
+      <c r="A85" s="161"/>
       <c r="B85" s="122"/>
       <c r="C85" s="121" t="s">
         <v>120</v>
@@ -6675,7 +6678,7 @@
       <c r="I85" s="109"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="160"/>
+      <c r="A86" s="161"/>
       <c r="B86" s="122"/>
       <c r="C86" s="121" t="s">
         <v>124</v>
@@ -6696,7 +6699,7 @@
       <c r="I86" s="109"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="160"/>
+      <c r="A87" s="161"/>
       <c r="B87" s="122"/>
       <c r="C87" s="121" t="s">
         <v>128</v>
@@ -6717,7 +6720,7 @@
       <c r="I87" s="109"/>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="160"/>
+      <c r="A88" s="161"/>
       <c r="B88" s="122"/>
       <c r="C88" s="121" t="s">
         <v>211</v>
@@ -6741,7 +6744,7 @@
       </c>
     </row>
     <row r="89" s="105" customFormat="1" spans="1:9">
-      <c r="A89" s="160"/>
+      <c r="A89" s="161"/>
       <c r="B89" s="122"/>
       <c r="C89" s="130" t="s">
         <v>215</v>
@@ -6757,10 +6760,10 @@
         <v>216</v>
       </c>
       <c r="H89" s="129"/>
-      <c r="I89" s="172"/>
+      <c r="I89" s="173"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="160"/>
+      <c r="A90" s="161"/>
       <c r="B90" s="122" t="s">
         <v>217</v>
       </c>
@@ -6783,7 +6786,7 @@
       <c r="I90" s="109"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="160"/>
+      <c r="A91" s="161"/>
       <c r="B91" s="122"/>
       <c r="C91" s="121" t="s">
         <v>220</v>
@@ -6804,7 +6807,7 @@
       <c r="I91" s="109"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="160"/>
+      <c r="A92" s="161"/>
       <c r="B92" s="122"/>
       <c r="C92" s="121" t="s">
         <v>223</v>
@@ -6825,7 +6828,7 @@
       <c r="I92" s="109"/>
     </row>
     <row r="93" hidden="1" spans="1:9">
-      <c r="A93" s="160"/>
+      <c r="A93" s="161"/>
       <c r="B93" s="122"/>
       <c r="C93" s="121" t="s">
         <v>226</v>
@@ -6838,7 +6841,7 @@
       <c r="I93" s="109"/>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="160"/>
+      <c r="A94" s="161"/>
       <c r="B94" s="122"/>
       <c r="C94" s="121" t="s">
         <v>227</v>
@@ -6859,7 +6862,7 @@
       <c r="I94" s="109"/>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="160"/>
+      <c r="A95" s="161"/>
       <c r="B95" s="122"/>
       <c r="C95" s="121" t="s">
         <v>230</v>
@@ -6880,7 +6883,7 @@
       <c r="I95" s="109"/>
     </row>
     <row r="96" hidden="1" spans="1:9">
-      <c r="A96" s="160"/>
+      <c r="A96" s="161"/>
       <c r="B96" s="122"/>
       <c r="C96" s="121" t="s">
         <v>233</v>
@@ -6899,7 +6902,7 @@
       <c r="I96" s="109"/>
     </row>
     <row r="97" hidden="1" spans="1:9">
-      <c r="A97" s="160"/>
+      <c r="A97" s="161"/>
       <c r="B97" s="122"/>
       <c r="C97" s="121" t="s">
         <v>235</v>
@@ -6914,7 +6917,7 @@
       <c r="I97" s="109"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="160"/>
+      <c r="A98" s="161"/>
       <c r="B98" s="122"/>
       <c r="C98" s="121" t="s">
         <v>236</v>
@@ -6935,7 +6938,7 @@
       <c r="I98" s="109"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="160"/>
+      <c r="A99" s="161"/>
       <c r="B99" s="122"/>
       <c r="C99" s="121" t="s">
         <v>239</v>
@@ -6956,7 +6959,7 @@
       <c r="I99" s="109"/>
     </row>
     <row r="100" hidden="1" spans="1:9">
-      <c r="A100" s="160"/>
+      <c r="A100" s="161"/>
       <c r="B100" s="122"/>
       <c r="C100" s="121" t="s">
         <v>242</v>
@@ -6971,7 +6974,7 @@
       <c r="I100" s="109"/>
     </row>
     <row r="101" hidden="1" spans="1:9">
-      <c r="A101" s="160"/>
+      <c r="A101" s="161"/>
       <c r="B101" s="122"/>
       <c r="C101" s="121" t="s">
         <v>244</v>
@@ -6984,7 +6987,7 @@
       <c r="I101" s="109"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="160"/>
+      <c r="A102" s="161"/>
       <c r="B102" s="122" t="s">
         <v>245</v>
       </c>
@@ -7007,7 +7010,7 @@
       <c r="I102" s="109"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="160"/>
+      <c r="A103" s="161"/>
       <c r="B103" s="122"/>
       <c r="C103" s="121" t="s">
         <v>74</v>
@@ -7028,7 +7031,7 @@
       <c r="I103" s="109"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="160"/>
+      <c r="A104" s="161"/>
       <c r="B104" s="122"/>
       <c r="C104" s="121" t="s">
         <v>77</v>
@@ -7049,7 +7052,7 @@
       <c r="I104" s="109"/>
     </row>
     <row r="105" s="105" customFormat="1" spans="1:9">
-      <c r="A105" s="160"/>
+      <c r="A105" s="161"/>
       <c r="B105" s="122"/>
       <c r="C105" s="130" t="s">
         <v>81</v>
@@ -7065,10 +7068,10 @@
         <v>251</v>
       </c>
       <c r="H105" s="129"/>
-      <c r="I105" s="172"/>
+      <c r="I105" s="173"/>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="160"/>
+      <c r="A106" s="161"/>
       <c r="B106" s="122"/>
       <c r="C106" s="121" t="s">
         <v>83</v>
@@ -7089,7 +7092,7 @@
       <c r="I106" s="109"/>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="160"/>
+      <c r="A107" s="161"/>
       <c r="B107" s="122"/>
       <c r="C107" s="121" t="s">
         <v>84</v>
@@ -7110,7 +7113,7 @@
       <c r="I107" s="109"/>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="160"/>
+      <c r="A108" s="161"/>
       <c r="B108" s="122"/>
       <c r="C108" s="121" t="s">
         <v>87</v>
@@ -7131,7 +7134,7 @@
       <c r="I108" s="109"/>
     </row>
     <row r="109" s="105" customFormat="1" ht="13.8" customHeight="1" spans="1:9">
-      <c r="A109" s="160"/>
+      <c r="A109" s="161"/>
       <c r="B109" s="122"/>
       <c r="C109" s="130" t="s">
         <v>91</v>
@@ -7147,10 +7150,10 @@
         <v>255</v>
       </c>
       <c r="H109" s="129"/>
-      <c r="I109" s="172"/>
+      <c r="I109" s="173"/>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="160"/>
+      <c r="A110" s="161"/>
       <c r="B110" s="122"/>
       <c r="C110" s="121" t="s">
         <v>93</v>
@@ -7171,7 +7174,7 @@
       <c r="I110" s="109"/>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="160"/>
+      <c r="A111" s="161"/>
       <c r="B111" s="122"/>
       <c r="C111" s="121" t="s">
         <v>94</v>
@@ -7192,7 +7195,7 @@
       <c r="I111" s="109"/>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="160"/>
+      <c r="A112" s="161"/>
       <c r="B112" s="122"/>
       <c r="C112" s="121" t="s">
         <v>97</v>
@@ -7213,7 +7216,7 @@
       <c r="I112" s="109"/>
     </row>
     <row r="113" s="105" customFormat="1" spans="1:9">
-      <c r="A113" s="160"/>
+      <c r="A113" s="161"/>
       <c r="B113" s="122"/>
       <c r="C113" s="130" t="s">
         <v>101</v>
@@ -7229,10 +7232,10 @@
         <v>258</v>
       </c>
       <c r="H113" s="129"/>
-      <c r="I113" s="172"/>
+      <c r="I113" s="173"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="160"/>
+      <c r="A114" s="161"/>
       <c r="B114" s="122" t="s">
         <v>259</v>
       </c>
@@ -7255,7 +7258,7 @@
       <c r="I114" s="109"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="160"/>
+      <c r="A115" s="161"/>
       <c r="B115" s="122"/>
       <c r="C115" s="121" t="s">
         <v>118</v>
@@ -7276,7 +7279,7 @@
       <c r="I115" s="109"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="160"/>
+      <c r="A116" s="161"/>
       <c r="B116" s="122"/>
       <c r="C116" s="121" t="s">
         <v>120</v>
@@ -7297,7 +7300,7 @@
       <c r="I116" s="109"/>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="160"/>
+      <c r="A117" s="161"/>
       <c r="B117" s="122"/>
       <c r="C117" s="121" t="s">
         <v>124</v>
@@ -7318,7 +7321,7 @@
       <c r="I117" s="109"/>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="160"/>
+      <c r="A118" s="161"/>
       <c r="B118" s="122"/>
       <c r="C118" s="121" t="s">
         <v>128</v>
@@ -7339,38 +7342,38 @@
       <c r="I118" s="109"/>
     </row>
     <row r="119" s="107" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A119" s="161"/>
-      <c r="B119" s="142"/>
-      <c r="C119" s="162" t="s">
+      <c r="A119" s="162"/>
+      <c r="B119" s="143"/>
+      <c r="C119" s="163" t="s">
         <v>211</v>
       </c>
-      <c r="D119" s="163">
+      <c r="D119" s="164">
         <v>1</v>
       </c>
-      <c r="E119" s="163" t="s">
+      <c r="E119" s="164" t="s">
         <v>265</v>
       </c>
-      <c r="F119" s="142" t="s">
+      <c r="F119" s="143" t="s">
         <v>266</v>
       </c>
-      <c r="G119" s="142" t="s">
+      <c r="G119" s="143" t="s">
         <v>267</v>
       </c>
-      <c r="H119" s="164"/>
-      <c r="I119" s="173"/>
+      <c r="H119" s="165"/>
+      <c r="I119" s="174"/>
     </row>
     <row r="120" hidden="1" spans="1:9">
-      <c r="A120" s="165"/>
+      <c r="A120" s="166"/>
       <c r="B120" s="135"/>
-      <c r="C120" s="166" t="s">
+      <c r="C120" s="167" t="s">
         <v>215</v>
       </c>
-      <c r="D120" s="150"/>
-      <c r="E120" s="150"/>
+      <c r="D120" s="151"/>
+      <c r="E120" s="151"/>
       <c r="F120" s="135"/>
       <c r="G120" s="135"/>
-      <c r="H120" s="150"/>
-      <c r="I120" s="174"/>
+      <c r="H120" s="151"/>
+      <c r="I120" s="175"/>
     </row>
     <row r="121" hidden="1" spans="1:9">
       <c r="A121" s="67" t="s">
@@ -7469,7 +7472,7 @@
     </row>
     <row r="128" hidden="1" spans="1:9">
       <c r="A128" s="67"/>
-      <c r="B128" s="167" t="s">
+      <c r="B128" s="168" t="s">
         <v>277</v>
       </c>
       <c r="C128" s="121" t="s">
@@ -8536,7 +8539,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
